--- a/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
@@ -689,7 +689,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4206024498", "https://openalex.org/W2990042899", "https://openalex.org/W2060394509", "https://openalex.org/W2013239920", "https://openalex.org/W2770125625", "https://openalex.org/W3173844259", "https://openalex.org/W3025340789", "https://openalex.org/W2776538312", "https://openalex.org/W3205229159", "https://openalex.org/W2491472934")</t>
+          <t>c("https://openalex.org/W2315476538", "https://openalex.org/W4242950386", "https://openalex.org/W2401541913", "https://openalex.org/W2399839159", "https://openalex.org/W2464956870", "https://openalex.org/W2887824103", "https://openalex.org/W84620508", "https://openalex.org/W2811121186", "https://openalex.org/W1983175551", "https://openalex.org/W2314871077")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,375 +360,191 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Matthew L Repp, Rodrigo A Alvarez, Dory E Arevalo-Salazar, Rajesh Kotagiri</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321446268</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Metastatic Renal Cell Carcinoma and Unforeseen Adrenal Insufficiency: A Case Report and Literature Review</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5085682073", "https://openalex.org/A5039369874", "https://openalex.org/A5057943392", "https://openalex.org/A5074347735"), au_display_name = c("Matthew L Repp", "Rodrigo A Alvarez", "Dory E Arevalo-Salazar", "Rajesh Kotagiri"), au_orcid = c(NA, NA, NA, "https://orcid.org/0000-0002-7034-7080"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", ""), institution_id = c(NA, NA, NA, NA), institution_display_name = c(NA, NA, 
-NA, NA), institution_ror = c(NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Renal cell carcinoma (RCC) can metastasize to nearly every organ, yet rarely metastasizes to the adrenal glands despite their anatomical proximity. Adrenal metastases are typically incidental findings on medical imaging and are vastly clinically asymptomatic. The adrenal glands can maintain hormonal homeostasis if a tenth of total adrenal gland function is preserved. We present a patient with synchronous bilateral adrenal metastases from RCC with rapid and unexpected development of adrenal insufficiency (AI).</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>Cureus</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>Cureus, Inc.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2738950867</t>
+          <t>https://doi.org/10.7759/cureus.35265</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2168-8184</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36968872</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.7759/cureus.35265</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://assets.cureus.com/uploads/case_report/pdf/140036/20230323-13905-1nu3qe0.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://assets.cureus.com/uploads/case_report/pdf/140036/20230323-13905-1nu3qe0.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4321446268</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4321446268", doi = "https://doi.org/10.7759/cureus.35265", pmid = "https://pubmed.ncbi.nlm.nih.gov/36968872")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7759/cureus.35265</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1505357904", "https://openalex.org/W1573209838", "https://openalex.org/W1950311963", "https://openalex.org/W1973173373", "https://openalex.org/W1981811872", "https://openalex.org/W2005847875", "https://openalex.org/W2025523475", "https://openalex.org/W2034748489", "https://openalex.org/W2047496980", "https://openalex.org/W2054051061", "https://openalex.org/W2111378135", "https://openalex.org/W2128799992", "https://openalex.org/W2137533299", "https://openalex.org/W2162804468", 
-"https://openalex.org/W2183655692", "https://openalex.org/W2345526697", "https://openalex.org/W2405817247", "https://openalex.org/W2406156741", "https://openalex.org/W2409390430", "https://openalex.org/W2473095437", "https://openalex.org/W2760730585", "https://openalex.org/W2807399776", "https://openalex.org/W2904272382", "https://openalex.org/W2947742684", "https://openalex.org/W2971820558", "https://openalex.org/W3007266269", "https://openalex.org/W3193755621")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2315476538", "https://openalex.org/W4242950386", "https://openalex.org/W2401541913", "https://openalex.org/W2399839159", "https://openalex.org/W2464956870", "https://openalex.org/W2887824103", "https://openalex.org/W84620508", "https://openalex.org/W2811121186", "https://openalex.org/W1983175551", "https://openalex.org/W2314871077")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Rajesh Kotagiri, Matthew Leonard Repp, Michael Kim, Faissal Stipho</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387615825</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Infratemporal Abscess: A Rare Complication of a Common Procedure</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5074347735", "https://openalex.org/A5005767538", "https://openalex.org/A5090991465", "https://openalex.org/A5074814483"), au_display_name = c("Rajesh Kotagiri", "Matthew Leonard Repp", "Michael Kim", "Faissal Stipho"), au_orcid = c("https://orcid.org/0000-0002-7034-7080", NA, "https://orcid.org/0000-0002-1458-8234", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Banner University Medical Center Tucson,\n Tucson", "University of Arizona College of Medicine", 
-"University of Arizona College of Medicine", "University of Arizona College of Medicine"), institution_id = c("https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("healthcare", "education", "education", "education"), institution_lineage = c("https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The infratemporal fossa (ITF) is an anatomically complex cavity that houses a variety of muscular and neurovascular structures at the base of the skull. Infections involving the ITF, though uncommon, can be fatal due to the difficulties of accessing this anatomical space and its proclivity to evolve into a cavernous venous thrombosis (CVT). As a result, a multi-disciplinary approach involving several surgical and medical subspecialists is often warranted. We present a case of an infratemporal fossa abscess (IFA) after wisdom tooth extraction with a very complicated clinical course and a distinct microbiologic profile.</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -738,142 +554,52 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1099/acmi.0.000721.v1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1099/acmi.0.000721.v1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.microbiologyresearch.org/deliver/fulltext/acmi/10.1099/acmi.0.000721.v1/acmi.0.000721.v1.1.pdf?itemId=/content/reviewreports/10.1099/acmi.0.000721.v1.1&amp;mimeType=pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.microbiologyresearch.org/deliver/fulltext/acmi/10.1099/acmi.0.000721.v1/acmi.0.000721.v1.1.pdf?itemId=/content/reviewreports/10.1099/acmi.0.000721.v1.1&amp;mimeType=pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4387615825</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4387615825", doi = "https://doi.org/10.1099/acmi.0.000721.v1")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1099/acmi.0.000721.v1</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2911791024", "https://openalex.org/W2475475053", "https://openalex.org/W2909643789", "https://openalex.org/W4385264215", "https://openalex.org/W4281391099", "https://openalex.org/W3108797620", "https://openalex.org/W4323532375", "https://openalex.org/W2043227145", "https://openalex.org/W2059494134", "https://openalex.org/W4300198674")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Kotagiri_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321446268</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Metastatic Renal Cell Carcinoma and Unforeseen Adrenal Insufficiency: A Case Report and Literature Review</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.35265</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36968872</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.35265</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,81 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Banner University Medical Center Tucson,
+ Tucson; University of Arizona College of Medicine; University of Arizona College of Medicine; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387615825</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Infratemporal Abscess: A Rare Complication of a Common Procedure</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1099/acmi.0.000721.v1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1099/acmi.0.000721.v1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
